--- a/biology/Botanique/Rhaphiostylis_subsessilifolia/Rhaphiostylis_subsessilifolia.xlsx
+++ b/biology/Botanique/Rhaphiostylis_subsessilifolia/Rhaphiostylis_subsessilifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhaphiostylis subsessilifolia est une espèce d'arbuste, de la famille des Icacinaceae, endémique du Cameroun.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbuste toujours vert possède des pétioles très courts, le limbe faiblement coriace. Les Nervures secondaires ascendantes s'anastomosent loin du bord du limbe. L'infrustescence comporte une drupe réniforme apiculée et aplatie, portant un pédicelle excentrique sur le fruit, l'endocarpe mince et crustacé.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce serait endémique de la région de Batanga[Lequel ?] au Cameroun[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce serait endémique de la région de Batanga[Lequel ?] au Cameroun.
 </t>
         </is>
       </c>
